--- a/rhla_analysis/rhla1_6_exp_result/k10.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k10.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006945950698790967</v>
+        <v>0.005691136418511013</v>
       </c>
       <c r="B2" t="n">
-        <v>1.033809846279611</v>
+        <v>1.014427565714589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2868712702472293</v>
+        <v>0.2348947725729803</v>
       </c>
       <c r="D2" t="n">
-        <v>148.8363351700091</v>
+        <v>178.2469248874544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01466568342021029</v>
+        <v>0.009607138773684923</v>
       </c>
       <c r="B3" t="n">
-        <v>1.044088801078451</v>
+        <v>1.022779195827537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2817561807331628</v>
+        <v>0.2270875763747454</v>
       </c>
       <c r="D3" t="n">
-        <v>71.19264552237824</v>
+        <v>106.4603332918484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01062802543002361</v>
+        <v>0.008328253407209232</v>
       </c>
       <c r="B4" t="n">
-        <v>1.044645708235194</v>
+        <v>1.042279655584852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3013640238704177</v>
+        <v>0.2464358452138493</v>
       </c>
       <c r="D4" t="n">
-        <v>98.29160789210431</v>
+        <v>125.14984890861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01124082904477932</v>
+        <v>0.007376525190923374</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9579529884267454</v>
+        <v>0.9899665150726195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2847399829497016</v>
+        <v>0.2386286490156144</v>
       </c>
       <c r="D5" t="n">
-        <v>85.22084844548512</v>
+        <v>134.2049934691131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.008016800510547361</v>
+        <v>0.008729161361420464</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9819212303341271</v>
+        <v>0.9826243924125888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2877237851662404</v>
+        <v>0.2260692464358452</v>
       </c>
       <c r="D6" t="n">
-        <v>122.4829318182803</v>
+        <v>112.568017903233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01871050728180606</v>
+        <v>0.01079937952840052</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9766126269860377</v>
+        <v>0.979391771784177</v>
       </c>
       <c r="C7" t="n">
-        <v>0.288150042625746</v>
+        <v>0.2240325865580448</v>
       </c>
       <c r="D7" t="n">
-        <v>52.19594596110643</v>
+        <v>90.68963353019902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0111044084135695</v>
+        <v>0.005515072447559804</v>
       </c>
       <c r="B8" t="n">
-        <v>1.004748888907187</v>
+        <v>1.020194246754054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2860187553282182</v>
+        <v>0.2298031228784793</v>
       </c>
       <c r="D8" t="n">
-        <v>90.48198260425936</v>
+        <v>184.9829275054127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004423612484063596</v>
+        <v>0.004114775625331019</v>
       </c>
       <c r="B9" t="n">
-        <v>1.024064803725198</v>
+        <v>0.9919848848019536</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2804774083546462</v>
+        <v>0.2240325865580448</v>
       </c>
       <c r="D9" t="n">
-        <v>231.4996639996089</v>
+        <v>241.0787306834384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004010827443839135</v>
+        <v>0.004886961288878131</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9660962698033426</v>
+        <v>0.9830336957292246</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2813299232736573</v>
+        <v>0.2192803801765105</v>
       </c>
       <c r="D10" t="n">
-        <v>240.8720602745757</v>
+        <v>201.1543856437818</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.005143152093183805</v>
+        <v>0.00883742244260455</v>
       </c>
       <c r="B11" t="n">
-        <v>1.006661567881664</v>
+        <v>1.000519145301288</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2774936061381074</v>
+        <v>0.226408689748812</v>
       </c>
       <c r="D11" t="n">
-        <v>195.7285239951951</v>
+        <v>113.2139095759258</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_exp_result/k10.xlsx
+++ b/rhla_analysis/rhla1_6_exp_result/k10.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005691136418511013</v>
+        <v>0.005691136418510975</v>
       </c>
       <c r="B2" t="n">
         <v>1.014427565714589</v>
@@ -466,12 +466,12 @@
         <v>0.2348947725729803</v>
       </c>
       <c r="D2" t="n">
-        <v>178.2469248874544</v>
+        <v>178.2469248874556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.009607138773684923</v>
+        <v>0.009607138773684885</v>
       </c>
       <c r="B3" t="n">
         <v>1.022779195827537</v>
@@ -480,12 +480,12 @@
         <v>0.2270875763747454</v>
       </c>
       <c r="D3" t="n">
-        <v>106.4603332918484</v>
+        <v>106.4603332918489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.008328253407209232</v>
+        <v>0.008328253407209267</v>
       </c>
       <c r="B4" t="n">
         <v>1.042279655584852</v>
@@ -494,12 +494,12 @@
         <v>0.2464358452138493</v>
       </c>
       <c r="D4" t="n">
-        <v>125.14984890861</v>
+        <v>125.1498489086095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.007376525190923374</v>
+        <v>0.007376525190923386</v>
       </c>
       <c r="B5" t="n">
         <v>0.9899665150726195</v>
@@ -508,12 +508,12 @@
         <v>0.2386286490156144</v>
       </c>
       <c r="D5" t="n">
-        <v>134.2049934691131</v>
+        <v>134.2049934691128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.008729161361420464</v>
+        <v>0.008729161361420447</v>
       </c>
       <c r="B6" t="n">
         <v>0.9826243924125888</v>
@@ -522,26 +522,26 @@
         <v>0.2260692464358452</v>
       </c>
       <c r="D6" t="n">
-        <v>112.568017903233</v>
+        <v>112.5680179032333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01079937952840052</v>
+        <v>0.0107993795284005</v>
       </c>
       <c r="B7" t="n">
-        <v>0.979391771784177</v>
+        <v>0.9793917717841771</v>
       </c>
       <c r="C7" t="n">
         <v>0.2240325865580448</v>
       </c>
       <c r="D7" t="n">
-        <v>90.68963353019902</v>
+        <v>90.68963353019926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005515072447559804</v>
+        <v>0.005515072447559833</v>
       </c>
       <c r="B8" t="n">
         <v>1.020194246754054</v>
@@ -550,26 +550,26 @@
         <v>0.2298031228784793</v>
       </c>
       <c r="D8" t="n">
-        <v>184.9829275054127</v>
+        <v>184.9829275054117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004114775625331019</v>
+        <v>0.004114775625331085</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9919848848019536</v>
+        <v>0.9919848848019535</v>
       </c>
       <c r="C9" t="n">
         <v>0.2240325865580448</v>
       </c>
       <c r="D9" t="n">
-        <v>241.0787306834384</v>
+        <v>241.0787306834345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004886961288878131</v>
+        <v>0.004886961288878112</v>
       </c>
       <c r="B10" t="n">
         <v>0.9830336957292246</v>
@@ -578,12 +578,12 @@
         <v>0.2192803801765105</v>
       </c>
       <c r="D10" t="n">
-        <v>201.1543856437818</v>
+        <v>201.1543856437826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.00883742244260455</v>
+        <v>0.008837422442604569</v>
       </c>
       <c r="B11" t="n">
         <v>1.000519145301288</v>
@@ -592,7 +592,7 @@
         <v>0.226408689748812</v>
       </c>
       <c r="D11" t="n">
-        <v>113.2139095759258</v>
+        <v>113.2139095759255</v>
       </c>
     </row>
   </sheetData>
